--- a/src/main/doc/技能地图.xlsx
+++ b/src/main/doc/技能地图.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAB6108-DF82-4F7C-914D-4B6A0003506E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3299654-7CDA-4301-9BE1-DDC7FB7A6A7D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Java后台开发" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>前台技术</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,48 @@
   </si>
   <si>
     <t>1. Java                     2. Spring                   3. SpringMVC          4.MyBatis                 5.SpringBoot            6.SpringCloud          7.Druid             8.设计模式        9. Dubbo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 文案的能力
+2. 项目管理专业知识的能力
+3. 英语听说读写能力
+4. 思维模式提升
+5. 形成方法论的能力
+6. 看人识人的能力
+7. 演讲的能力（制作知识技能短视频，10分钟以内，抖音发布）
+8. 业务知识，管理知识
+9. 统计学知识、经济学知识
+10.开公司的流程知识、会计知识
+11. 方案设计的能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考取的证书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. PMP
+2. ACP
+3. 金融从业者证书
+4. FRM、CFA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Excel操作的能力
+2. PPT编写的能力
+3. Project的能力
+4. jira项目管理
+5. python 编程
+6. word排版的能力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -176,6 +218,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -459,7 +504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -541,13 +586,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02F6F3C-2AA7-4A7F-A5F5-DF9F91EE8B23}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="36.75" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="186.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/doc/技能地图.xlsx
+++ b/src/main/doc/技能地图.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3299654-7CDA-4301-9BE1-DDC7FB7A6A7D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DA3E0B-6B3E-4217-833F-380B085E273A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,6 +99,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>考取的证书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Excel操作的能力
+2. PPT编写的能力
+3. Project的能力
+4. jira项目管理
+5. python 编程
+6. word排版的能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1. 文案的能力
 2. 项目管理专业知识的能力
 3. 英语听说读写能力
@@ -109,27 +122,17 @@
 8. 业务知识，管理知识
 9. 统计学知识、经济学知识
 10.开公司的流程知识、会计知识
-11. 方案设计的能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考取的证书</t>
+11.方案设计的能力
+12.运营的知识和思维</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. PMP
 2. ACP
 3. 金融从业者证书
-4. FRM、CFA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Excel操作的能力
-2. PPT编写的能力
-3. Project的能力
-4. jira项目管理
-5. python 编程
-6. word排版的能力</t>
+4. FRM、CFA
+5. 软考高级
+6. 雅思等级考试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,7 +592,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -607,18 +610,18 @@
         <v>18</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="186.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/doc/技能地图.xlsx
+++ b/src/main/doc/技能地图.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DA3E0B-6B3E-4217-833F-380B085E273A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30AEB7E-9E06-49FC-A341-66F3A34841E2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,7 +112,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 文案的能力
+    <t>1. PMP
+2. ACP
+3. 金融从业者证书
+4. FRM、CFA
+5. 软考高级
+6. 雅思等级考试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软技能
+1. 文案的能力
 2. 项目管理专业知识的能力
 3. 英语听说读写能力
 4. 思维模式提升
@@ -123,16 +133,8 @@
 9. 统计学知识、经济学知识
 10.开公司的流程知识、会计知识
 11.方案设计的能力
-12.运营的知识和思维</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. PMP
-2. ACP
-3. 金融从业者证书
-4. FRM、CFA
-5. 软考高级
-6. 雅思等级考试</t>
+12.运营的知识和思维
+13.敏捷的知识</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -140,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +152,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -208,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -224,6 +235,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,7 +522,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -592,36 +606,36 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="36.75" customWidth="1"/>
+    <col min="2" max="2" width="39.125" customWidth="1"/>
     <col min="3" max="3" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/doc/技能地图.xlsx
+++ b/src/main/doc/技能地图.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30AEB7E-9E06-49FC-A341-66F3A34841E2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE5E497-E9B3-445F-A6A4-393C352E6376}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,7 +134,7 @@
 10.开公司的流程知识、会计知识
 11.方案设计的能力
 12.运营的知识和思维
-13.敏捷的知识</t>
+13.敏捷的知识，CMMI模式理论知识</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,7 +606,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/src/main/doc/技能地图.xlsx
+++ b/src/main/doc/技能地图.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE5E497-E9B3-445F-A6A4-393C352E6376}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72D944B-AD2F-4AA7-A9A9-F3C4B8018383}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -606,7 +606,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/src/main/doc/技能地图.xlsx
+++ b/src/main/doc/技能地图.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72D944B-AD2F-4AA7-A9A9-F3C4B8018383}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3F60F8-6D5D-4EB2-A4B3-7BA127E3D6DB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,15 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. PMP
-2. ACP
-3. 金融从业者证书
-4. FRM、CFA
-5. 软考高级
-6. 雅思等级考试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>软技能
 1. 文案的能力
 2. 项目管理专业知识的能力
@@ -135,6 +126,16 @@
 11.方案设计的能力
 12.运营的知识和思维
 13.敏捷的知识，CMMI模式理论知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. PMP
+2. ACP
+3. 金融从业者证书
+4. FRM、CFA
+5. 软考高级
+6. 雅思等级考试
+7. PRINCE2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,7 +607,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -632,10 +633,10 @@
         <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/doc/技能地图.xlsx
+++ b/src/main/doc/技能地图.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3F60F8-6D5D-4EB2-A4B3-7BA127E3D6DB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D24F183-47DB-4A3E-A11B-B9B64D8B8D1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Java后台开发" sheetId="1" r:id="rId1"/>
@@ -522,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02F6F3C-2AA7-4A7F-A5F5-DF9F91EE8B23}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/src/main/doc/技能地图.xlsx
+++ b/src/main/doc/技能地图.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D24F183-47DB-4A3E-A11B-B9B64D8B8D1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EADABA-18C7-4D80-9273-598CD4B14CF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Java后台开发" sheetId="1" r:id="rId1"/>
@@ -522,7 +522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02F6F3C-2AA7-4A7F-A5F5-DF9F91EE8B23}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/src/main/doc/技能地图.xlsx
+++ b/src/main/doc/技能地图.xlsx
@@ -3,25 +3,34 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EADABA-18C7-4D80-9273-598CD4B14CF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DD81B2-5484-425E-B2EB-23109E050D0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Java后台开发" sheetId="1" r:id="rId1"/>
     <sheet name="项目管理" sheetId="2" r:id="rId2"/>
+    <sheet name="人生修养" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>前台技术</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,12 +147,84 @@
 7. PRINCE2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>学习技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    哲学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    心理学（社会心理学）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    经济学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    古代哲学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    名人传记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    管理学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    毛笔字（楷体、隶书）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    硬笔字（楷体、隶书）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    文学（诗歌、散文）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    看懂乐谱（简谱）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    学几种乐器（笛子、钢琴、吉他）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    国内旅游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    国外旅游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +246,31 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -217,10 +323,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -240,8 +347,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="RowLevel_1" xfId="1" builtinId="1" iLevel="0"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -523,7 +634,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -606,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02F6F3C-2AA7-4A7F-A5F5-DF9F91EE8B23}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -644,4 +755,116 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC3E1EA-6BEA-47B1-B699-47CAC4EA68E0}">
+  <sheetPr>
+    <outlinePr applyStyles="1" summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/doc/技能地图.xlsx
+++ b/src/main/doc/技能地图.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DD81B2-5484-425E-B2EB-23109E050D0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F5E583-979F-44F2-BB93-1357AD10B5CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Java后台开发" sheetId="1" r:id="rId1"/>
@@ -112,12 +112,85 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. Excel操作的能力
-2. PPT编写的能力
-3. Project的能力
-4. jira项目管理
-5. python 编程
-6. word排版的能力</t>
+    <t>1. PMP
+2. ACP
+3. 金融从业者证书
+4. FRM、CFA
+5. 软考高级
+6. 雅思等级考试
+7. PRINCE2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    哲学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    心理学（社会心理学）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    经济学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    古代哲学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    名人传记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    管理学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    毛笔字（楷体、隶书）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    硬笔字（楷体、隶书）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    文学（诗歌、散文）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    看懂乐谱（简谱）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    学几种乐器（笛子、钢琴、吉他）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    国内旅游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    国外旅游</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -134,89 +207,18 @@
 10.开公司的流程知识、会计知识
 11.方案设计的能力
 12.运营的知识和思维
-13.敏捷的知识，CMMI模式理论知识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. PMP
-2. ACP
-3. 金融从业者证书
-4. FRM、CFA
-5. 软考高级
-6. 雅思等级考试
-7. PRINCE2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>书法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    哲学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    心理学（社会心理学）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    经济学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    古代哲学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    名人传记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    管理学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    毛笔字（楷体、隶书）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    硬笔字（楷体、隶书）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    文学（诗歌、散文）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    看懂乐谱（简谱）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    学几种乐器（笛子、钢琴、吉他）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    国内旅游</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    国外旅游</t>
+13.敏捷的知识，CMMI模式理论知识
+14.关注/看懂国家政策，留意国家规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Excel操作的能力
+2. PPT编写的能力
+3. Project的能力
+4. jira项目管理
+5. python 编程
+6. word排版的能力
+7. confluence使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -717,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02F6F3C-2AA7-4A7F-A5F5-DF9F91EE8B23}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -739,15 +741,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="228" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -764,8 +766,8 @@
   </sheetPr>
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -775,92 +777,92 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:1" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/doc/技能地图.xlsx
+++ b/src/main/doc/技能地图.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F5E583-979F-44F2-BB93-1357AD10B5CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F79846B-8619-4374-8D2C-04E6A8A814E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Java后台开发" sheetId="1" r:id="rId1"/>
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02F6F3C-2AA7-4A7F-A5F5-DF9F91EE8B23}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -766,7 +766,7 @@
   </sheetPr>
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>

--- a/src/main/doc/技能地图.xlsx
+++ b/src/main/doc/技能地图.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F79846B-8619-4374-8D2C-04E6A8A814E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9162CFC7-890F-458C-ACA1-CA3C4524839A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Java后台开发" sheetId="1" r:id="rId1"/>
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02F6F3C-2AA7-4A7F-A5F5-DF9F91EE8B23}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -766,7 +766,7 @@
   </sheetPr>
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>

--- a/src/main/doc/技能地图.xlsx
+++ b/src/main/doc/技能地图.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9162CFC7-890F-458C-ACA1-CA3C4524839A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BFB12E-2D14-4AFE-946D-39D8ED6762BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -720,7 +720,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/src/main/doc/技能地图.xlsx
+++ b/src/main/doc/技能地图.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BFB12E-2D14-4AFE-946D-39D8ED6762BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D94FB70-A5D8-47D5-9C68-1DF4262E29A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Java后台开发" sheetId="1" r:id="rId1"/>
@@ -639,19 +639,19 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.58203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="13.58203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
     <col min="8" max="8" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="28" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -677,7 +677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="136.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -703,7 +703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J4" t="s">
         <v>13</v>
       </c>
@@ -720,17 +720,17 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="39.125" customWidth="1"/>
+    <col min="2" max="2" width="39.08203125" customWidth="1"/>
     <col min="3" max="3" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -741,7 +741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="228" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="224" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -770,97 +770,97 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:1" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
